--- a/PEI_suppliers/DW Suppliers Expanding.xlsx
+++ b/PEI_suppliers/DW Suppliers Expanding.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>address</t>
   </si>
@@ -212,20 +212,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +510,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,17 +526,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -562,14 +562,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -579,14 +579,14 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -596,12 +596,14 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -615,14 +617,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4"/>
@@ -632,14 +634,14 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="4"/>
@@ -651,12 +653,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="4"/>
@@ -666,14 +670,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="4"/>
@@ -685,13 +689,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -708,24 +712,24 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>12</v>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
